--- a/data/Commit_Details.xlsx
+++ b/data/Commit_Details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,60 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Parents</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Message</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Number of Files Modified</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Lines Added</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Lines Deleted</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Complexity</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Interfacing</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Files</t>
         </is>
@@ -513,20 +518,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>['18b0ed739ed0c0e35726f7d1aa57341446cf32f6']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2006-07-11 19:33:12+00:00</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Combined patch for the following JIRA Issues:
 AXIS2-873: Nikhil - JAXB Wrapper SubComponent
@@ -543,25 +553,25 @@
 We will be opening new JIRA issues soon.</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>156</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>13851</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>784</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.8283233132932531</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.8719661545312848</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.6040970830549989</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>156</v>
       </c>
     </row>
@@ -578,45 +588,50 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>['8c10a25b7701d9958d487c10caeac57cc147d747']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2006-11-03 21:22:14+00:00</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>AXIS2-1601
 Contributor: Rich Scheuerle
 JAX-WS Performance Improvements (mostly related to pooling of JAXBContexts)</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>18</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>506</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>175</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.05109489051094891</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.927007299270073</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.4014598540145985</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>18</v>
       </c>
     </row>
@@ -633,45 +648,50 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>['1771e427715687e63a8dfb8c5b6231eb8166e1a2']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Nicholas L. Gallardo</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>ngallardo@apache.org</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2006-11-08 20:14:05+00:00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>AXIS2-1623
 Contributor: Samuel Isokpunwu
 Sam's patch for adding an additional flag to turn on MTOM.</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>130</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.7115384615384616</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.9615384615384616</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -688,43 +708,48 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>['e4392dc33a8bf86e2ddbbfb595bd962b03a2964c']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Davanum Srinivas</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>dims@apache.org</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2007-02-26 14:46:16+00:00</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Fix for AXIS2-2233 - Pinging capability to services deployed in axis2</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>587</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.6846846846846847</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.4774774774774775</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -741,44 +766,49 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>['8fd41f631e772937752ead9155edded2f98a8a04']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Jeffrey Lee Barrett</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>barrettj@apache.org</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2007-03-02 21:26:40+00:00</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>AXIS2-2286
 Support for Doc/Lit/Bare operation routing in metadata layer.</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>405</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>76</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.683982683982684</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.6536796536796536</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -795,43 +825,48 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>['66058a470bb2813fc4efbebc29f2110bc95b1ed2']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Davanum Srinivas</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>dims@apache.org</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2007-03-15 15:26:09+00:00</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Fix for AXIS2-2281 and AXIS2-2267 from GeeChia</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>17</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>1608</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1043</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.4868421052631579</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.9078947368421053</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.4177631578947368</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>17</v>
       </c>
     </row>
@@ -848,37 +883,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>['4e66afe30cf9bf5aeffdc423a85265e0f8cd1460']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Davanum Srinivas</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>dims@apache.org</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2007-03-15 15:26:28+00:00</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Fix for AXIS2-2281 and AXIS2-2267 from GeeChia</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -895,45 +935,50 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>['323d96a13583fb23ad1d1f6f63768bb11ef0ecb1']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Nicholas L. Gallardo</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>ngallardo@apache.org</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2007-03-28 14:28:56+00:00</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>AXIS2-2218, AXIS2-2397
 Contributor: Mike Rheinheimer
 Bringing all the handler stuff together and adding a sample.</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>23</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>1938</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1203</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.6330935251798561</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.9568345323741008</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.4748201438848921</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -950,43 +995,48 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>['3ca853d42364f6060c4c21e695f5db3303685014']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Asankha Chamath Perera</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>asankha@apache.org</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2007-03-29 17:53:45+00:00</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Fix AXIS2-2434 and AXIS2-2266</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>126</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>23</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.5972222222222222</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
       <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1003,44 +1053,49 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>['909f5bf137f543ad82f6c76b5797c54d79981004']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Jeffrey Lee Barrett</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>barrettj@apache.org</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2007-04-10 19:11:48+00:00</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>AXIS2-2500
 Fix contributed by Dustin Amrhein.  Use WebParam.name instead of WebParam.partName for element mapping</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>22</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>16</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
       <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1057,45 +1112,50 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>['00513396373a292221b07d4840ef490d40aab0bd']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2007-04-11 22:02:25+00:00</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>AXIS2-2513
 Contributor:Rich Scheuerle
 MTOM/SWA Streamlining.  This is primarily a performance change.</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>16</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>577</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>778</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.05263157894736842</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.2631578947368421</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1112,37 +1172,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>['581ae2628948129a1a1b2f8359bab7d3cbfe5771']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Nicholas L. Gallardo</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>ngallardo@apache.org</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2007-04-16 13:49:41+00:00</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>AXIS2-2532
 Update the factories to create a LogicalMessageContext.</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>39</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>17</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
@@ -1150,6 +1212,9 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1166,44 +1231,49 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>['b8da20b0874f2e4a13c381cfcb6320c4547bd9a4']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Nicholas L. Gallardo</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>ngallardo@apache.org</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2007-04-16 14:19:05+00:00</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>AXIS2-2532
 Adding an implementation of the LogicalMessage with some initial tests.</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>251</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
       <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.9310344827586207</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.7816091954022989</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1220,44 +1290,49 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>['42a68c415f12614ce72da7dc4ccf43225ee0262b']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Nicholas L. Gallardo</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>ngallardo@apache.org</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2007-04-16 15:58:01+00:00</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>AXIS2-2532
 More LogicalMessageContext tests.</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>130</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>20</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,44 +1349,49 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>['1859b0650e3a8ff7feaf9cac4529a6aafdfbd545']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Nicholas L. Gallardo</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>ngallardo@apache.org</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2007-04-16 19:49:39+00:00</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>AXIS2-2532
 Allow the payload to be accessed multiple times.</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>101</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>0.2978723404255319</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
       <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.2978723404255319</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1328,37 +1408,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>['e1aef7d70bdf1e52816439c0b40054086ac6c9a9']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Davanum Srinivas</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>dims@apache.org</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2007-06-06 19:08:02+00:00</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Fix for AXIS2-2712 - Separate compile client from run client in MTOM sample</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>11</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>9</v>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1375,36 +1460,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>['2f9ccc2a5ef2b4a245c988c9e12f391dd0bb7370']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Davanum Srinivas</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>dims@apache.org</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2007-08-05 19:26:13+00:00</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Fix for AXIS2-2698 - ListingAgent should support service name with composite paths</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>32</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>9</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
@@ -1412,6 +1499,9 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,20 +1518,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>['bbc6793773ac791aee0910222f5a7294700afded']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2007-08-18 13:45:30+00:00</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>AXIS2-3130
 Contributor:Rich Scheuerle
@@ -1451,25 +1546,25 @@
 improvements, improved debug trace and javadocs.</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>4</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>884</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>240</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>0.802547770700637</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.5095541401273885</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.3343949044585987</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1486,45 +1581,50 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>['b81b1975f994916ecd4f4e7620805c242ef9688e']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2007-08-21 11:56:49+00:00</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>AXIS2-3137
 Contributors:Mike Rheinheimer and Rich Scheuerle
 Ensure XMLStreamReaders produced by XMLUtils.toOM(...) are properly closed.</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>77</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>11</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
       <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.3448275862068966</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1541,20 +1641,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>['937b45d9f75b567a73f8b455037c7cb90ec885c7']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2007-09-06 21:01:21+00:00</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>AXIS2-3180
 Contributor: Bill Nagy
@@ -1563,17 +1668,14 @@
 will never be freed and could lead to out-of-memory problems.</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>58</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1582,6 +1684,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1598,43 +1703,48 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>['974b81e4f9240ebb63377ae60d4e05fcb2a4256e']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Michael Rheinheimer</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>rott@apache.org</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2007-09-13 20:19:37+00:00</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Jira AXIS2-3202:  Server sends close connection causes client to halt.  Solution is to switch threads on client dispatch.</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>15</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>1261</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>437</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>0.7192982456140351</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.8345864661654135</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>0.2456140350877193</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1651,45 +1761,50 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>['328b035a610e2491454215358e9acb51d14ffa67']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2007-10-24 09:41:40+00:00</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>AXIS2-3298
 Contributor:Nick Gallardo
 Corrections to the Async Endpoint threadswitch code (see AXIS2-3202)</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>8</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>178</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>18</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
       <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1706,45 +1821,50 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>['328b035a610e2491454215358e9acb51d14ffa67']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2007-10-24 09:41:40+00:00</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>AXIS2-3298
 Contributor:Nick Gallardo
 Corrections to the Async Endpoint threadswitch code (see AXIS2-3202)</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>8</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>178</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>18</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
       <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1761,20 +1881,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>['598ac17b7c48d3a0a9eb58db26bb12a7c8fd8305']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2007-11-15 12:47:15+00:00</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>AXIS2-3344
 Contributor:Rich Scheuerle
@@ -1782,18 +1907,15 @@
 Reduce the synchronization block in addPropertyDifference</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>11</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>5</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
@@ -1801,6 +1923,9 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1817,20 +1942,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>['ea8a3e274c60de62238bcaa5f3af2e73b1f1b0b4']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2007-12-11 17:02:32+00:00</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>AXIS2-3399
 Contributor: David Strite and Rich Scheuerle
@@ -1838,25 +1968,25 @@
 This improves the performance by eliminating synchronization on gets.</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>35</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>10</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
       <c r="K26" t="n">
         <v>1</v>
       </c>
       <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.2272727272727273</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,20 +2003,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>['828ff334eece1e0af26a3ce5e69f37764a94a95b']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2008-01-03 15:26:44+00:00</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>AXIS2-3422
 Contributor:Rich Scheuerle
@@ -1894,25 +2029,25 @@
 Recode the MessageContext.getProperty(String) method to avoid duplicate lookups.</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>38</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>12</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>0.7222222222222222</v>
       </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
       <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.7222222222222222</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1929,44 +2064,49 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>['f9938969e4312bacdbe8ff817c049effae218979']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Jeffrey Lee Barrett</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>barrettj@apache.org</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2008-01-11 03:56:14+00:00</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>AXIS2-3439
 Add support for sparse DescriptionBuilderComposite on the client side to override some annotation member values in client artifacts on a per-ServiceDelgate basis.</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>37</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>3580</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>293</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>0.9235628553379659</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.8982943777637398</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.2571067593177511</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1983,20 +2123,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>['d1aaf4884533decf0ab9b6fcefd9642cc4fa6bc6']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2008-01-14 16:12:49+00:00</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>AXIS2-3442
 Contributor: Rich Scheuerle
@@ -2004,25 +2149,25 @@
 David suggested a change to lazily create the propertyDifferences map.</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>39</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>14</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
       <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.2142857142857143</v>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
       <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,44 +2184,49 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>['2088d525f5133ac146b3c30d074dbb6bdb9a570a']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Nicholas L. Gallardo</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>ngallardo@apache.org</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2008-01-28 16:46:03+00:00</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>AXIS2-3448
 Tests and minor tweaks for client side MTOMFeature enablement.</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>5</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>301</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>25</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>0.9158878504672897</v>
       </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
       <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
         <v>0.9158878504672897</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2093,44 +2243,49 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>['ec7a780f294096d78b7592fa7f795fdc9e80dc50']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Nicholas L. Gallardo</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>ngallardo@apache.org</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2008-02-21 16:35:29+00:00</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>AXIS2-3448
 More tests and support for MTOMFeature config.</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>6</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>192</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>57</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0.95</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2147,20 +2302,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>['6b8a32bb73b31961931409f62b4548c9bb624995']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Roy Wood</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>woodroy@apache.org</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2008-03-03 18:47:38+00:00</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>JIRA: AXIS2-3550
 Contributor: Roy Wood
@@ -2168,25 +2328,25 @@
 Initial Drop to split out the JAXWS client-server tests to 'jaxws-integration' and leave unit tests in jaxws/test</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>337</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>37944</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>19926</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>0.9425411383868357</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>0.9851632047477745</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>0.4104397086592932</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>337</v>
       </c>
     </row>
@@ -2203,43 +2363,48 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>['558bf65fcf3ad1119de5831bbcca32a74a156dd7']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>Hettige Don Ignatious Nywan Sanka Samaranayake</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>sanka@apache.org</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2008-03-04 14:31:32+00:00</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Committed the patched suggested in https://issues.apache.org/jira/browse/AXIS2-3523</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>23</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>7884</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>6326</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>0.3417602996254682</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>0.4812734082397004</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>0.1367041198501873</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2256,45 +2421,50 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>['d6203e1d06275220b60edc1d3a66f18e1e92b517']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2008-03-04 18:07:49+00:00</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>AXIS2-3546
 Contributor:Rich Scheuerle
 Changes to the JAXWS engine to install a JAXBCustomBuilder on the StAXBuilder.</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>19</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>1268</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>168</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>0.6008676789587852</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>0.6767895878524945</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>0.420824295010846</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2311,20 +2481,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>['42f06631b70325b5944ba53b3f0453ed8baf47b1']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Roy Wood</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>woodroy@apache.org</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2008-03-05 20:07:00+00:00</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>JIRA: AXIS2-3550
 Contributor: Roy Wood
@@ -2332,17 +2507,14 @@
 Final checkin to complete the transition of the JAXWS test framework</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>24</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>242</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>1260</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2351,6 +2523,9 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2367,43 +2542,48 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>['cea0d0baa9846e820e8f12b9cb5732b035bfe215']</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>Davanum Srinivas</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>dims@apache.org</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2008-03-14 21:00:36+00:00</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Fix for AXIS2-3608 - Adding equals and hashCode to ServiceClient</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>27</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>0.9375</v>
       </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
       <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
         <v>0.9375</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2420,44 +2600,49 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>['c92c5649981a24fe09716219d29d1833a76d81e5']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>Jeffrey Lee Barrett</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>barrettj@apache.org</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2008-03-21 13:40:17+00:00</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>AXIS2-3567
 Add server-side role-based JAXWS Application Handler mustUnderstand processing and associated tests</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>8</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>739</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>7</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>0.7698630136986301</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>0.8657534246575342</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>0.3506849315068493</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2474,45 +2659,50 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>['d0756a445b0df94cf3e72a74c074f3d6c036cf95']</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>Hettige Don Ignatious Nywan Sanka Samaranayake</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>sanka@apache.org</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2008-03-29 09:25:45+00:00</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Applied the patch with minor fixes to resolve test failures.
 see:
 https://issues.apache.org/jira/browse/AXIS2-3677</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>27</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>1461</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>1052</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>0.3925233644859813</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>0.8753894080996885</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>0.161993769470405</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>27</v>
       </c>
     </row>
@@ -2529,20 +2719,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>['49b400c076c6760646e1d83a6545f2292378b5af']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>Davanum Srinivas</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>dims@apache.org</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2008-03-31 14:51:35+00:00</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Fix from Sanka for
 AXIS2-3677 - Suggested fixes for 1.4 RC3
@@ -2550,25 +2745,25 @@
 Slightly modified with some log.debug and one spelling change.</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>24</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>2503</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>2043</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0.5793650793650794</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>0.1825396825396825</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2585,20 +2780,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>['49b400c076c6760646e1d83a6545f2292378b5af']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Davanum Srinivas</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>dims@apache.org</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2008-03-31 14:51:35+00:00</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Fix from Sanka for
 AXIS2-3677 - Suggested fixes for 1.4 RC3
@@ -2606,25 +2806,25 @@
 Slightly modified with some log.debug and one spelling change.</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>24</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>2503</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>2043</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>0.5793650793650794</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>0.1825396825396825</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2641,20 +2841,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>['d8e9916e83c64f7c3dea0168928d04e90ea70a7c']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2008-04-05 18:05:22+00:00</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>AXIS2-3708
 Contributor:Rich Scheuerle
@@ -2662,25 +2867,25 @@
 See the JIRA proposal for info.</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>16</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>677</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>45</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>0.6951566951566952</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>0.9430199430199431</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>0.3190883190883191</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2697,45 +2902,50 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>['6415438bb542bf428267e335f49023287466d962']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2008-04-21 15:42:32+00:00</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>AXIS2-3758
 Contributor:Rich Scheuerle
 Use WeakReference objects to allow gc() to reclaim JAXBContext and related objects.</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>159</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>82</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>0</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>0.07692307692307693</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2752,20 +2962,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>['6908ea5f957ed1acef1eab8527238a7de406bac3']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2008-07-16 12:20:40+00:00</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>AXIS2-3298
 Contributor:Rich Scheuerle
@@ -2774,25 +2989,25 @@
 All exceptions are logged if debug is enabled.</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>8</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>291</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>117</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>0.6166666666666667</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>0.05</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>0.65</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2809,20 +3024,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>['0d7a205e2055395e62699689482058686a8808f9']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2008-07-18 15:04:00+00:00</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>AXIS2-3925
 Contributor: Rich Scheuerle
@@ -2832,25 +3052,25 @@
 Changed the MTOMSerializationTest to validate this fix.</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>6</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>155</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>13</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>0.4565217391304348</v>
       </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
       <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.05434782608695652</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2867,33 +3087,35 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>['cd070db0f1b3d6c687a19d6d77ed65c98baf0a29']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2008-08-02 16:16:21+00:00</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>AXIS2-3960
 Exclude certain namespaces from the namespace-&gt;package search</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
       <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
         <v>18</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2905,6 +3127,9 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2921,45 +3146,50 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>['34dc462bebd0e297c8ed64a1cfe061d2e901774c']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2008-08-02 16:20:01+00:00</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>AXIS2-3959
 Contributor:Rich Scheuerle and David Strite
 Performance fix to cache the list of headers from sei method parameters.</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>51</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>21</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>0</v>
       </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
       <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2976,20 +3206,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>['9ab268abd3d72d3b0a0ca65769289546725860d7']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2008-08-06 22:36:06+00:00</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>AXIS2-3966
 Contributor:Rich Scheuerle
@@ -2998,25 +3233,25 @@
 In this case, freeing the input stream is accomplished by invoking the detach() method on the DetachableInputStream.</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>6</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>119</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>30</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>0.6774193548387096</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>0.9032258064516129</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>0.2741935483870968</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3033,20 +3268,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>['d3c12be068d57e5d5cabcc0950b79782b18e5d26']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2008-09-15 16:25:17+00:00</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>AXIS2-4031
 Contributors:Nick Gallardo, Rich Scheuerle
@@ -3057,25 +3297,25 @@
   * (Rich) Updated the Provider&lt;Source&gt; and Provider&lt;String&gt; tests to verify the no QName toleration path.</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>6</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>149</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>7</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>0.3627450980392157</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>0.9117647058823529</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>0.2647058823529412</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3092,20 +3332,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>['4eff34417d82f246d43e2aa3b35134084ab2f130']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2008-09-19 16:11:04+00:00</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>AXIS2-4039
 Summary of Changes:
@@ -3121,25 +3366,25 @@
      property does not break persistance.</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>9</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>325</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>19</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>0.8154761904761905</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>0.9642857142857143</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>0.02380952380952381</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3156,37 +3401,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>['850066842acf5c74bb1b388d807a5bae1c8dc065']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Nandana Mihindukulasooriya</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>nandana@apache.org</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2008-10-22 08:36:44+00:00</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>AXIS2-4066 WS-AddressingAndIdentity constants</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>23</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3203,20 +3453,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>['abeff519953c9c7a76df266e92d1f3d800bcbb52']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Nandana Mihindukulasooriya</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>nandana@apache.org</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2008-10-22 08:56:33+00:00</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>AXIS2-3784, AXIS2-4066, AXIS2-4048 
 * 3784 - Checking the hostname parameter and get the hostname from the url only if it is not set
@@ -3224,25 +3479,25 @@
 * 4048 - adding the policy uri</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>83</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>15</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>0.9</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>0.3</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3259,43 +3514,48 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>['46cc4fea460a13f052c6d97c1defeb40209543af']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>Michael Rheinheimer</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>rott@apache.org</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2008-10-27 20:53:31+00:00</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>AXIS2-4100: add OMElement support to jaxws Provider/Dispatch</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>9</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>604</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>30</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>0.7872340425531915</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>0.9521276595744681</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>0.1595744680851064</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3312,37 +3572,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>['83675e6c8427c43c7257593926b82b6c4ae2c861']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Nandana Mihindukulasooriya</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>nandana@apache.org</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2009-02-03 09:12:23+00:00</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>AXIS2-4220 applying javadoc patches. Thanks Dobri.</t>
         </is>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>5</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>37</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>2</v>
       </c>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3359,43 +3624,48 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>['9665f01b14283438fd8996357a9c25ddb625104a']</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>Nandana Mihindukulasooriya</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>nandana@apache.org</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2009-02-03 09:19:04+00:00</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>AXIS2-4220 applying javadoc patches. Thanks Dobri.</t>
         </is>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>4</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>70</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>7</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
       <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3412,43 +3682,48 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>['d0635b4449a7bf32410379874c13330d31b317c6']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>Jarek Gawor</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>gawor@apache.org</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2009-03-24 20:36:16+00:00</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Basic fix for Local File Inclusion Vulnerability on parsing WSDL related XSD files (AXIS2-4279)</t>
         </is>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>98</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>6</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>0.9428571428571428</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>0.05714285714285714</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>0.4</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3465,44 +3740,49 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>['30f17e43148a3ee5fd82ab95fd3f9b3ba9e1bb90']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>Roy Wood</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>woodroy@apache.org</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2009-03-25 22:06:35+00:00</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Cleanup for AXIS2-4100
 Contributor: Roy Wood for Mike Rheinheimer</t>
         </is>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>3</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>40</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>23</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>0.8</v>
       </c>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
       <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3519,43 +3799,48 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>['1a914de2d903bc44975049bc5f21ba66aba00865']</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Dobri Emilov Kitipov</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>dobri@apache.org</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>2009-04-30 15:06:30+00:00</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Support HttpState object association with a client and use it when invoking httpClient.executeMethod(...). For more information refer to https://issues.apache.org/jira/browse/AXIS2-4288</t>
         </is>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>3</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>29</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>5</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>0.07692307692307693</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3572,37 +3857,42 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>['19db0dbc3aeee26516ea6448a3f48fbd80e0cc2d']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>Dobri Emilov Kitipov</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>dobri@apache.org</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2009-04-30 15:20:14+00:00</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Remove the import for org.apache.commons.httpclient.HttpState since it was used only for the JavaDoc. The JavaDoc was edited so the import is not needed anymore. Support HttpState object association with a client and use it when invoking httpClient.executeMethod(...). For more information refer to https://issues.apache.org/jira/browse/AXIS2-4288</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
       <c r="H58" t="n">
         <v>1</v>
       </c>
       <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
         <v>3</v>
       </c>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3619,43 +3909,48 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>['fa85aa35c03fa8a268e2f14b4a045f4d749fd366']</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>Michael Rheinheimer</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>rott@apache.org</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2009-05-12 13:55:16+00:00</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Jira: AXIS2-4345 - improve performance for JAX-WS handlers when accessing or manipulating SOAP headers</t>
         </is>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>24</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>4111</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>268</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>0.9612068965517241</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>0.9932266009852216</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>0.2764778325123153</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3672,37 +3967,42 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>['cec51c8d03e8703fa859ea69dd6b84309f3c20fc']</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>Dobri Emilov Kitipov</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>dobri@apache.org</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2009-06-03 15:16:51+00:00</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>This is the documentation related to JIRA AXIS2-4288. Documentation about "Setting the cached httpstate object" and the motivation to use this configuration.</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
       <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
         <v>35</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,20 +4019,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>['549399b63644f9fa93969a7fca58813163ade872']</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2009-06-17 18:31:50+00:00</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>JIRA:AXIS2-4392
 Contributor:Wendy Rascke
@@ -3740,25 +4045,25 @@
 Copy the SAAJ MIMEHeader SOAPAction value onto the Axis2 MessageContext</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
       <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>10</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
         <v>0</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3775,44 +4080,49 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>['57f593ef994e02b6b60267b08999872e7d0ba134']</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>Nikhil Thaker</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>nthaker@apache.org</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2009-09-25 21:58:25+00:00</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>AXIS2-4509.
 This is a performance improvement item for Provider&lt;OMElement&gt; JAX-WS api. I am adding new Custom Builder that creates OM backed by DataSource (ParserInputStreamDataSource contributed to Axiom) that avoids unnecessary expansion of OM improving providers performance.</t>
         </is>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>12</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>1117</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
       <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
         <v>0.55</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>0.7555555555555555</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>0.3740740740740741</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3829,20 +4139,25 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>['e8726979d44ba8ee7acccf4645ab62f7c18ceeb1']</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>2009-11-02 22:07:29+00:00</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>AXIS2-4509
 Contributor: Davanum Srinivas, Rich Scheuerle
@@ -3850,25 +4165,25 @@
 Added a verification test.</t>
         </is>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>4</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>124</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
         <v>0.1159420289855072</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>0.5217391304347826</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>0.1594202898550725</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3885,20 +4200,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>['a3c8a7b7302a2dbb2dd847b244d9aae04e11dde9']</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>2010-02-10 02:14:31+00:00</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>AXIS2-4620
 Committer:Rich Scheuerle
@@ -3908,18 +4228,15 @@
 Added an OnDemandLogger and test.  This logger defers the LogFactory.newInstance creation until first touch.</t>
         </is>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>8</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>202</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>18</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
       <c r="K64" t="n">
         <v>1</v>
       </c>
@@ -3927,6 +4244,9 @@
         <v>1</v>
       </c>
       <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3943,44 +4263,49 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>['b6d31e99590219563067e310b4f4b12eeb80ff6c']</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>Nikhil Thaker</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>nthaker@apache.org</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>2010-07-12 22:16:54+00:00</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>AXIS2-4775
 This change ensures that we will use Request and Response wrapper Bean packaged by customer or we will Generate Wrappers if they are not packaged.</t>
         </is>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>6</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>268</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.9047619047619048</v>
       </c>
       <c r="K65" t="n">
         <v>0.9047619047619048</v>
       </c>
       <c r="L65" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="M65" t="n">
         <v>0.2738095238095238</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3997,20 +4322,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>['a217ee7b78b9cd0878002d27b3008fccca99d85e']</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>2010-08-06 12:31:05+00:00</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>AXIS2-4791
 Contributor:Rich Scheuerle
@@ -4018,25 +4348,25 @@
 Also added a verification test</t>
         </is>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>5</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>264</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>24</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>0.2773109243697479</v>
       </c>
-      <c r="K66" t="n">
-        <v>1</v>
-      </c>
       <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4053,20 +4383,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>['ab66226da57d81502fd8cac3ee10ff3d70021010']</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>2010-09-09 19:24:21+00:00</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>AXIS2-4815
 Contributor:Rich Scheuerle
@@ -4074,25 +4409,25 @@
 Add a property to allow access to the envelope as a String within a JAX-WS handler</t>
         </is>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>10</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>231</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>0.3766233766233766</v>
       </c>
-      <c r="K67" t="n">
-        <v>1</v>
-      </c>
       <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
         <v>0</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4109,20 +4444,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>['84868f0b40994a1cd2762e8881d45d22dad9b449']</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>2010-09-22 16:35:29+00:00</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>AXIS2-4828
 Committer:Rich Scheuerle
@@ -4132,25 +4472,25 @@
 Added a unit validation test.</t>
         </is>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>3</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>78</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>7</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>0.7727272727272727</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>0.8863636363636364</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>0.3863636363636364</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4167,43 +4507,48 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>['11c10b4341c049b3c40155f5966aa74d7c6aa8f4']</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>2010-11-13 13:29:30+00:00</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>AXIS2-4828: Avoid buffering (and the unnecessary byte stream -&gt; char stream -&gt; byte stream conversion) of the SOAP body in SOAPMessageFormatter. The message is now streamed directly to the output stream.</t>
         </is>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>3</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>63</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>113</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
         <v>0.4137931034482759</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4220,38 +4565,40 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>['9a0e934241e93c5ed0a4b62a7aba38bb9d8fdbd5']</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>Richard J. Scheuerle, Jr</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>scheu@apache.org</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>2010-12-07 02:09:47+00:00</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>AXIS2-4906
 Contributor:Doug Larson &amp; Rich Scheuerle
 Summary: Small, localized refactoring to remove unnecessary getProperty calls.</t>
         </is>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>5</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>21</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>9</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
       <c r="K70" t="n">
         <v>1</v>
       </c>
@@ -4259,6 +4606,9 @@
         <v>1</v>
       </c>
       <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4275,43 +4625,48 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>['bbe654be9380913e9342d23648e2a1e07c507b33']</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>Mohamed Afkham Azeez</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>azeez@apache.org</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>2011-01-10 10:57:21+00:00</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Implemented feature suggested in AXIS2-3316 - Control whether a WSDL is returned when ?wsdl comes in - both at service level and global level</t>
         </is>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>4</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>234</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>120</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>0.9041095890410958</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>0</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>0.410958904109589</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4328,44 +4683,49 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>['20f322c41bd9f109b7e4d5122253bb0cad48659f']</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>Jeffrey Lee Barrett</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>barrettj@apache.org</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>2011-02-09 17:13:37+00:00</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>AXIS2-4952
 Scope dynamic ports to the instance of the service that did the addPort(...).  Add TDD Unit test and flag to revert to previous behavior of sharing dynamic ports across services.</t>
         </is>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>4</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>484</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>48</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>0.9459459459459459</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>0.8963963963963963</v>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
         <v>0.1036036036036036</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4382,43 +4742,48 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>['8ba48be8f9febd1f4e44e494967391e3d47bf4a2']</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>2011-07-05 11:25:06+00:00</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>AXIS2-5064 - Implemented basic Java Map Support.</t>
         </is>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>8</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>636</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>43</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>0.628361858190709</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>0.1809290953545232</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>0.09779951100244499</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4435,43 +4800,48 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>['b6b80b5702ce3e5dd0e9d606e0ad5ab4e665fa5c']</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>2011-11-15 01:20:54+00:00</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Applied the patch for AXIS2-4859.</t>
         </is>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>8</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>104</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>23</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4488,43 +4858,48 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>['d838a80cdc54756cc62e963a7822c4af9e002def']</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>2011-12-22 10:36:02+00:00</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Added initial codes for AXIS2-5217.</t>
         </is>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>5</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>791</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
       <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
         <v>0.9253112033195021</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>0.5643153526970954</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4541,37 +4916,42 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>['10d4a37d9b3af5155c2b30ec75af818198060f45']</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>2011-12-22 10:39:12+00:00</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Added dependency management for AXIS2-5217.</t>
         </is>
       </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
       <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>13</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,37 +4968,42 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>['97a0d9057a474f126f9b8e42911ccca9591e3572']</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>2011-12-22 10:42:44+00:00</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Added new module  AXIS2-5217.</t>
         </is>
       </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
       <c r="H77" t="n">
         <v>1</v>
       </c>
       <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4635,36 +5020,38 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>['b8aeac0b563e0863ce3d8f4577674e1f4a7d0d06']</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>2012-01-11 09:54:41+00:00</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Added new module for AXIS2-5229.</t>
         </is>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>6</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>274</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
       <c r="K78" t="n">
         <v>1</v>
       </c>
@@ -4672,6 +5059,9 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4688,37 +5078,42 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>['1eb120c27a46e5623c3fc1af86314573eaa02625']</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>2012-01-11 09:56:28+00:00</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>maven-archetype-plugin added for AXIS2-5229.</t>
         </is>
       </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
       <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
         <v>6</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,37 +5130,42 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>['af1f155226f32ba70fd45682598f23ea4b38041e']</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>2012-01-11 10:00:20+00:00</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Added new module for AXIS2-5229.</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
       <c r="H80" t="n">
         <v>1</v>
       </c>
       <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,36 +5182,38 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>['a092e66d13cb201fb8ef133a1fdff5a54053647e']</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>2012-01-11 11:20:15+00:00</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Added new module  AXIS2-5230.</t>
         </is>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>8</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>314</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
       <c r="K81" t="n">
         <v>1</v>
       </c>
@@ -4819,6 +5221,9 @@
         <v>1</v>
       </c>
       <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4835,37 +5240,42 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>['be34256cea6b26f75b3403d333f8c4ceacb8da66']</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>2012-01-11 11:22:25+00:00</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Added new module  AXIS2-5230.</t>
         </is>
       </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
       <c r="H82" t="n">
         <v>1</v>
       </c>
       <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,43 +5292,48 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>['649f4475bc4d918c61d508e42bbb22f9eb0a96bb']</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>2012-01-13 11:24:50+00:00</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Applied patch for AXIS2-5231 with few changes.</t>
         </is>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>145</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>12</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>0.01666666666666667</v>
       </c>
-      <c r="K83" t="n">
-        <v>1</v>
-      </c>
       <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
         <v>0</v>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4935,35 +5350,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>['541ce001b9575cbd201e2574222d18798c131d19']</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>2012-01-13 16:13:08+00:00</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Modified test case according to AXIS2-5231 changes.</t>
         </is>
       </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
       <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
         <v>5</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4972,6 +5389,9 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,39 +5408,44 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>['26901e974023df540b85f7c16bce0056304283f9']</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>2012-03-19 06:44:09+00:00</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>AXIS2-5217
 PluginDescriptor#getClassRealm() return type is not compatible among Maven2 and Maven3. Due to above issue this plug-in not work in Maven3. I have modified code to use Maven3 API hence will not work with Maven 2. 
 We need to define Maven3 as a pre- requirement for the plug-in or need to find workaround  that works for both Maven versions.</t>
         </is>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>11</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>6</v>
       </c>
-      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5037,43 +5462,48 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>['ea20c43d97072075528bdaef35febd7e264a1961']</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>2012-05-17 07:17:48+00:00</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>AXIS2-5322 - Implemented ServiceBuilderExtension concept.</t>
         </is>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>7</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>251</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
       <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.3670886075949367</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>0.9493670886075949</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>0.3670886075949367</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5090,43 +5520,48 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>['c905a6cf2fc460c155ebd142c19d3509197ba5c3']</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>2012-05-18 05:18:09+00:00</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>AXIS2-5322, refactored WSDL 1.1/ WSDL 2.0 based service deployment as a ServiceBuilderExtension. Now it's possible to use WSDLServiceBuilderExtension with other Deployers too.</t>
         </is>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>8</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>223</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>39</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>0</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>0.3909774436090225</v>
       </c>
-      <c r="L87" t="n">
+      <c r="M87" t="n">
         <v>0.09774436090225563</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5143,43 +5578,48 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>['04c957ef049ea15848a9b6463ca281c2f48bddce']</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>2012-05-18 09:51:52+00:00</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>AXIS2-5322 -  Refactored JAXWSDeployer  so that codes can be shared among JAXWSDeployer and JAXWSServiceBuilderExtension through newly introduced JAXWSDeployerSupport class. JAXWSServiceBuilderExtension support to deploy JAX-WS artefacts based on  service.xml file.  Test coverage need to be added.</t>
         </is>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>3</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>526</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>133</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>0.4452554744525548</v>
       </c>
-      <c r="K88" t="n">
-        <v>1</v>
-      </c>
       <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
         <v>0.1678832116788321</v>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5196,20 +5636,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>['77df0307816b28b57f114fab2437b561e8d1da26']</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>2012-05-21 09:23:24+00:00</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Further improvements on AXIS2-5322.
 * Added test casees.
@@ -5217,25 +5662,25 @@
 * Few improvements.</t>
         </is>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>7</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>369</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>19</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>0.8917525773195877</v>
       </c>
-      <c r="K89" t="n">
-        <v>1</v>
-      </c>
       <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
         <v>0.6958762886597938</v>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5252,43 +5697,48 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>['bd59221faf78bc2a973ed1014765c5385ee69412']</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>2012-06-11 15:19:58+00:00</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>AXIS2-5340 - implemented proposed solution.</t>
         </is>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>42</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>412</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>32</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
       <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
       <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
         <v>42</v>
       </c>
     </row>
@@ -5305,37 +5755,42 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>['9f4e5da71d08722d2bce24cc0639348f9dbb6e78']</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>2012-06-12 06:17:52+00:00</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>AXIS2-5340 - Added unique names for pre-defined serviceBuilderExtensions.</t>
         </is>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>40</v>
-      </c>
-      <c r="H91" t="n">
-        <v>45</v>
       </c>
       <c r="I91" t="n">
         <v>45</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>45</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>40</v>
       </c>
     </row>
@@ -5352,33 +5807,35 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>['10193633203246acc988bbd3f0fbf87df1fa1aa4']</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>2012-06-21 06:29:24+00:00</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>AXIS2-5348 Fixed by adding Addressing class and supported-policy-namespaces.</t>
         </is>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>63</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
       <c r="J92" t="n">
         <v>1</v>
       </c>
@@ -5389,6 +5846,9 @@
         <v>1</v>
       </c>
       <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5405,43 +5865,48 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>['2bfa6027da61640aa0594bb6a4adee330fc32091']</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>Amila Chinthaka Suriarachchi</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>amilas@apache.org</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>2012-07-07 09:27:15+00:00</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>apply the patch for AXIS2-5270</t>
         </is>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>17</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>1375</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.6872727272727273</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>0.7236363636363636</v>
       </c>
-      <c r="L93" t="n">
+      <c r="M93" t="n">
         <v>0.4072727272727273</v>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5458,43 +5923,48 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>['b72ce71952443398a9d59a094c50167b67962b09']</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>2012-07-07 17:55:31+00:00</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Applied patch provided for AXIS2-5279 with few formating corrections, this will fix AXIS2-3492,AXIS2-5278. WSDL 1.1 customization required for AXIS2-3653, AXIS2-5240 also fixed.</t>
         </is>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>11</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>823</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>161</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>0.7743732590529248</v>
       </c>
-      <c r="K94" t="n">
-        <v>1</v>
-      </c>
       <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
         <v>0.5153203342618384</v>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5511,43 +5981,48 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>['b72ce71952443398a9d59a094c50167b67962b09']</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>2012-07-07 17:55:31+00:00</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Applied patch provided for AXIS2-5279 with few formating corrections, this will fix AXIS2-3492,AXIS2-5278. WSDL 1.1 customization required for AXIS2-3653, AXIS2-5240 also fixed.</t>
         </is>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>11</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>823</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>161</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>0.7743732590529248</v>
       </c>
-      <c r="K95" t="n">
-        <v>1</v>
-      </c>
       <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
         <v>0.5153203342618384</v>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5564,37 +6039,42 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>['868eddb0a3f5873b5a325035c082c55bfa3ee893']</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>Amila Chinthaka Suriarachchi</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>amilas@apache.org</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>2012-07-08 09:54:28+00:00</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>apply the patch for AXIS2-5270</t>
         </is>
       </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,43 +6091,48 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>['6314aa7c7a09c7f8970c71718aad5f7219ed81e2']</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>Amila Chinthaka Suriarachchi</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>amilas@apache.org</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>2012-08-24 06:34:32+00:00</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>applied the patch for AXIS2-5362</t>
         </is>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>18</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>2730</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>74</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>0.6132756132756133</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>0.8953823953823954</v>
       </c>
-      <c r="L97" t="n">
+      <c r="M97" t="n">
         <v>0.4285714285714285</v>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>18</v>
       </c>
     </row>
@@ -5664,43 +6149,48 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>['e1466f300a38060958d55a4029250ab75219003a']</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>2012-08-25 05:33:51+00:00</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>AXIS2-5279 - applied wsdl2 patch.</t>
         </is>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>6</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>700</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>434</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
       <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
         <v>0.3393939393939394</v>
       </c>
-      <c r="L98" t="n">
+      <c r="M98" t="n">
         <v>0.6909090909090909</v>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5717,37 +6207,42 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>['19fec34fbd77d003938aa712b9edfe3a3786ade3']</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>Sagara Gunathunga</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>sagara@apache.org</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>2012-08-25 06:38:24+00:00</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Correction for AXIS2-5322.</t>
         </is>
       </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
       <c r="H99" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>11</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5764,43 +6259,48 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>['b7283355f4c7b45cf6cb2d28149d1e712d92d902']</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>Amila Chinthaka Suriarachchi</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>amilas@apache.org</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>2012-08-25 16:59:39+00:00</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>apply the patch for AXIS2-5400</t>
         </is>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>4</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>105</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>129</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
       <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
         <v>0</v>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
       <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5817,36 +6317,38 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>['7e2f335366dd14c4e7b612ef4076d72f22c1676a']</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Amila Chinthaka Suriarachchi</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>amilas@apache.org</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>2012-08-29 13:04:09+00:00</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>applying patches for AXIS2-5404,AXIS2-5403,AXIS2-5402</t>
         </is>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>3</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>46</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>53</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
       <c r="K101" t="n">
         <v>1</v>
       </c>
@@ -5854,6 +6356,9 @@
         <v>1</v>
       </c>
       <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5870,43 +6375,48 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>['c1070ff550a541194ad1f2889de8161e6b6141c2']</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>2014-09-04 21:26:26+00:00</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>AXIS2-5659: Applied Detelin Yordanov's patch to improve WS-AddressingAndIdentity support (with minor formatting changes).</t>
         </is>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>5</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>180</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>30</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>0</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>0.7432432432432432</v>
       </c>
-      <c r="L102" t="n">
+      <c r="M102" t="n">
         <v>0</v>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5923,43 +6433,48 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>['cf4d55a0da6916bd9460ee7c28a81f1828350b44']</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>2014-09-21 09:14:10+00:00</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>AXIS2-5659: Added the unit tests missing in r1622565.</t>
         </is>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>3</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>413</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
       <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
         <v>0.8583333333333333</v>
       </c>
-      <c r="L103" t="n">
+      <c r="M103" t="n">
         <v>0.1416666666666667</v>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5976,20 +6491,25 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>['c2c319d72536541742a24407e576ea754a460583']</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>2016-02-03 23:56:06+00:00</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Remove the code introduced by AXIS2-4509 to implement an optimization that is only supported by a proprietary StAX implementation (presumably XLXP on WebSphere). Reasons:
 - The optimization needs to be enabled explicitly by registering a ParsedEntityReader, but no implementation of that interface for any StAX implementation is available. That means that no user of the (Open Source version) of Axis2 benefits from that optimization. Presumably the code is only enabled in IBM's fork of Axis2 used in WebSphere.
@@ -5997,25 +6517,25 @@
 - The code would require maintenance because some of the APIs that it uses will change in Axiom 1.3.</t>
         </is>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>14</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>1464</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>0.4702774108322325</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>0.2509907529722589</v>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>0.6274768824306473</v>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6032,37 +6552,42 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>['e242ff980c5b4c559a97b2460f9eb43acc543e57']</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>2016-04-15 18:32:44+00:00</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>AXIS2-5756: Document the -Eiu parameter on the WSDL2Java reference page. This change was part of the patch submitted by Dean Holdren for AXIS2-4859, but was never applied.</t>
         </is>
       </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
       <c r="H105" t="n">
         <v>1</v>
       </c>
       <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6079,39 +6604,44 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>['6aa1305772570102fbd2662e133d04239e981432']</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>2016-04-20 19:56:25+00:00</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>AXIS2-5761: Switch to the HttpClient 4.x based HTTP transport as default and use it for all unit tests and samples.
 Change created using the following command:
 sed -i '' -e 's/org\.apache\.axis2\.transport\.http\.CommonsHTTPTransportSender/org.apache.axis2.transport.http.impl.httpclient4.HTTPClient4TransportSender/' $(grep -l 'org\.apache\.axis2\.transport\.http\.CommonsHTTPTransportSender' -r . --include=*.xml --exclude-dir=.svn --exclude-dir=target --exclude-dir=xdoc)</t>
         </is>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>42</v>
-      </c>
-      <c r="H106" t="n">
-        <v>69</v>
       </c>
       <c r="I106" t="n">
         <v>69</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>69</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>42</v>
       </c>
     </row>
@@ -6128,35 +6658,37 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>['95c234645963d9e45d7cce4161f9737a94c97ce6']</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>2016-04-23 21:36:27+00:00</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>AXIS2-5761: Properly separate HttpClient 3.x and 4.x code.</t>
         </is>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>4</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>513</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>500</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -6165,6 +6697,9 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6181,43 +6716,48 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>['72247e7b5353e983a9ffc5c2656347526f89d84f']</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>2016-04-24 09:54:52+00:00</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>AXIS2-5761: Deprecate and move the Commons HttpClient 3.x based transport to a separate module.</t>
         </is>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>40</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>174</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>67</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>0</v>
       </c>
-      <c r="K108" t="n">
-        <v>1</v>
-      </c>
       <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
         <v>0</v>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>40</v>
       </c>
     </row>
@@ -6234,37 +6774,42 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>['7f4125f87ff509acef9ef67a4c29869fd25426cc']</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>2016-04-24 10:35:04+00:00</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>AXIS2-5761: Make sure that Commons HttpClient 3.x is no longer included in the distribution.</t>
         </is>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>3</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>211</v>
       </c>
-      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6281,43 +6826,48 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>['34b67aa113778448191d83705d7e37c9b15128fd']</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>2016-05-25 06:20:20+00:00</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>AXIS2-4791: Reimplement the invalid character filter as an MTOMXMLStreamWriter wrapper. This is possible since MTOMXMLStreamWriter is now an abstract class.</t>
         </is>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>3</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>494</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>100</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>0.7865853658536586</v>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>0.8719512195121951</v>
       </c>
-      <c r="L110" t="n">
+      <c r="M110" t="n">
         <v>0.7865853658536586</v>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6334,43 +6884,48 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>['2a3c0597a76cc550031848499154dc78012c53b3']</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>2016-06-04 12:59:53+00:00</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>AXIS2-4739: Avoid creating HTTP sessions in pages that don't require login, as this may be used in session fixation attacks.</t>
         </is>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>21</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>292</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>54</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>0.9753086419753086</v>
       </c>
-      <c r="L111" t="n">
+      <c r="M111" t="n">
         <v>0.5061728395061729</v>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6387,43 +6942,48 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>['83c5f4cd8deee4bdca2a55c9bde07ffa1ca03bce']</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>2016-06-04 16:03:09+00:00</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>AXIS2-4739: Protect the admin console against session fixation attacks.</t>
         </is>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>2</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>43</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>7</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="K112" t="n">
-        <v>1</v>
-      </c>
       <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6440,37 +7000,39 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>['fb0e1b34096c1ecae7982f73b489553ce6a360a8']</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>2017-04-23 11:38:22+00:00</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>AXIS2-5846: Fix a local file inclusion vulnerability in SimpleHTTPServer. This occurs because axis2server.sh adds the root directory of the binary distribution to the class path, and SimpleHTTPServer doesn't limit the search for XSD/WSDL files to the service class loader. This means that axis2.xml is accessible remotely via a specially crafted query string (xsd=../conf/axis2.xml).
 Although AxisServlet is not known to be vulnerable, this change also modifies ListingAgent to limit the search to the service class loader.</t>
         </is>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>3</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>21</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>6</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
       <c r="K113" t="n">
         <v>1</v>
       </c>
@@ -6478,6 +7040,9 @@
         <v>1</v>
       </c>
       <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6494,37 +7059,42 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>['9f52c4884d96264f2ae7f681b330717753ac4f85']</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>veithen@apache.org</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>2019-01-05 13:02:53+00:00</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>AXIS2-5945: Upgrade Xalan.</t>
         </is>
       </c>
-      <c r="G114" t="n">
-        <v>1</v>
-      </c>
       <c r="H114" t="n">
         <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6541,43 +7111,48 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>['8f9695a71cf367397e1ebdd981f8bf61955b0409']</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>Robert Lazarski</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>robertlazarski@gmail.com</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>2020-12-03 07:40:46-10:00</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>AXIS2-5993 upgrade entirely to log4j2</t>
         </is>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>62</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>451</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>550</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
       <c r="K115" t="n">
         <v>1</v>
       </c>
       <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
         <v>0.75</v>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>62</v>
       </c>
     </row>
@@ -6594,37 +7169,42 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>['6d937a03233d98841a621595e78320c8fffa161f']</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>andreas.veithen@gmail.com</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>2020-12-24 15:21:23+00:00</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>AXIS2-5993: Don't depend on log4j 1.x and 2.x at the same time</t>
         </is>
       </c>
-      <c r="G116" t="n">
-        <v>1</v>
-      </c>
       <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
         <v>2</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>8</v>
       </c>
-      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6641,20 +7221,25 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>['11e273548b03d7bb073df1f315422b07a3b791ea']</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>andreas.veithen@gmail.com</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>2020-12-24 16:02:51+00:00</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>AXIS2-5993: Get the log4j config from axis2-kernel
 Previously, in axis2-webapp we copied the log4j.properties file from the
@@ -6664,19 +7249,19 @@
 file from axis2-kernel.</t>
         </is>
       </c>
-      <c r="G117" t="n">
-        <v>2</v>
-      </c>
       <c r="H117" t="n">
         <v>2</v>
       </c>
       <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
         <v>29</v>
       </c>
-      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6693,20 +7278,25 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>['50ccdebc38f68fe945f4448931feceb28256589b']</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>andreas.veithen@gmail.com</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>2020-12-29 19:41:47+00:00</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>AXIS2-5993: Don't include log4j2.xml in axis2-kernel.jar
 The POM for axis2-kernel has a rule to include files from the conf
@@ -6718,19 +7308,19 @@
 the rule to make that explicit.</t>
         </is>
       </c>
-      <c r="G118" t="n">
-        <v>1</v>
-      </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6747,20 +7337,25 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>['0c266948eaa7784f31dca801cfae305b6b66a293']</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>andreas.veithen@gmail.com</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>2020-12-29 19:50:19+00:00</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>AXIS2-5993: Fix TestKitLogManager
 The code in that class got badly broken by the changes in AXIS2-5993:
@@ -6771,25 +7366,25 @@
 via commons-logging to be sent to java.util.logging instead of Log4j.</t>
         </is>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>25</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J119" t="n">
         <v>20</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
       <c r="K119" t="n">
         <v>1</v>
       </c>
       <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
         <v>0</v>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6806,20 +7401,25 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>['2a18d66d686e4ad670ca010ecabaeab58514e675']</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>andreas.veithen@gmail.com</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>2020-12-30 16:25:13+00:00</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>AXIS2-5993: Actually use Log4j 2.x in jaxws-integration
 The project has a dependency on log4j-core, but is missing log4j-jcl,
@@ -6827,19 +7427,19 @@
 commons-logging).</t>
         </is>
       </c>
-      <c r="G120" t="n">
-        <v>1</v>
-      </c>
       <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
         <v>5</v>
       </c>
-      <c r="I120" t="n">
+      <c r="J120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6856,37 +7456,42 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>['da681708840d73ea484c0666f7965479677ae995']</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>andreas.veithen@gmail.com</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>2020-12-30 16:48:48+00:00</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>AXIS2-5993: Move log4j2.xml to a location where it is actually used</t>
         </is>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>2</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6903,35 +7508,37 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>['cb808543997b4e5c0fd66b1b8922374b1ae1ee7a']</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>Andreas Veithen</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>andreas.veithen@gmail.com</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>2020-12-30 19:09:26+00:00</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>AXIS2-5993: Remove one remaining transitive dependency on Log4j 1.x</t>
         </is>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>4</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>20</v>
       </c>
-      <c r="I122" t="n">
+      <c r="J122" t="n">
         <v>24</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -6940,6 +7547,9 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
         <v>4</v>
       </c>
     </row>
